--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/NEW_JERSEY_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/NEW_JERSEY_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1247"/>
+  <dimension ref="A1:D1241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C3">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C23">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C26">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C28">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C34">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C38">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C59">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C64">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C70">
@@ -1712,7 +1712,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C105">
@@ -1951,7 +1951,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C124">
@@ -2148,7 +2148,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C134">
@@ -2213,12 +2213,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C139">
@@ -2257,7 +2257,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C142">
@@ -2270,7 +2270,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C143">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C148">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C154">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C158">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C165">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C171">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C172">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C182">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C189">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C190">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C191">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C193">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C203">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C212">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C217">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C218">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C221">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C222">
@@ -3406,7 +3406,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C230">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C236">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C246">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C247">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C248">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C249">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C250">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C254">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C259">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C263">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C267">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C269">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C270">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C274">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C279">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C283">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C289">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C290">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C292">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C298">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C308">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C311">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C312">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C316">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C318">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C323">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C333">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C334">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C339">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C342">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C346">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C354">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C355">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C356">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C357">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C358">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C359">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C362">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C365">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C366">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C369">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C371">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C372">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C374">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C380">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C381">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C383">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C386">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C392">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C396">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C402">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C405">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C410">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C412">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -5948,7 +5948,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C424">
@@ -6429,7 +6429,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C461">
@@ -6811,7 +6811,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C490">
@@ -6863,7 +6863,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C494">
@@ -6889,7 +6889,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C496">
@@ -7006,7 +7006,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C505">
@@ -7037,7 +7037,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C507">
@@ -7307,7 +7307,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C527">
@@ -7372,7 +7372,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C532">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C533">
@@ -7411,7 +7411,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C535">
@@ -7437,7 +7437,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C537">
@@ -7463,7 +7463,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C539">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C540">
@@ -7489,7 +7489,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C541">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C542">
@@ -7515,7 +7515,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C543">
@@ -7528,7 +7528,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C544">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C545">
@@ -7554,7 +7554,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C546">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C548">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C549">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C557">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C559">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C561">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C562">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C564">
@@ -7801,7 +7801,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C565">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C567">
@@ -7840,7 +7840,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C568">
@@ -7853,7 +7853,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C569">
@@ -7879,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C571">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C572">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C578">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C587">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C592">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C613">
@@ -8490,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C618">
@@ -8932,7 +8932,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C652">
@@ -9127,7 +9127,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C667">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C672">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C689">
@@ -9426,7 +9426,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C690">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C691">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C707">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C712">
@@ -9855,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C723">
@@ -10609,7 +10609,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C781">
@@ -10713,7 +10713,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C789">
@@ -10726,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C790">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C791">
@@ -10752,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C792">
@@ -10778,7 +10778,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C794">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C795">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C797">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C800">
@@ -10869,7 +10869,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C801">
@@ -10882,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C802">
@@ -10895,7 +10895,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C803">
@@ -10908,7 +10908,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C804">
@@ -10921,7 +10921,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C805">
@@ -10934,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C806">
@@ -10960,7 +10960,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C808">
@@ -11277,7 +11277,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C832">
@@ -11394,7 +11394,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C841">
@@ -11550,7 +11550,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C853">
@@ -11563,7 +11563,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C854">
@@ -11784,7 +11784,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C871">
@@ -11797,7 +11797,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C872">
@@ -11849,7 +11849,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C876">
@@ -11888,7 +11888,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C879">
@@ -11992,7 +11992,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C887">
@@ -12122,7 +12122,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C897">
@@ -12252,7 +12252,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C907">
@@ -12421,7 +12421,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C920">
@@ -12486,7 +12486,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C925">
@@ -12499,7 +12499,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C926">
@@ -12577,7 +12577,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C932">
@@ -12681,7 +12681,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C940">
@@ -12694,7 +12694,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C941">
@@ -12772,7 +12772,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C947">
@@ -12798,7 +12798,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C949">
@@ -12811,7 +12811,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C950">
@@ -12876,7 +12876,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C955">
@@ -13071,7 +13071,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C970">
@@ -13336,7 +13336,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C990">
@@ -13349,7 +13349,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C991">
@@ -13362,7 +13362,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C992">
@@ -13375,7 +13375,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C993">
@@ -13401,7 +13401,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C995">
@@ -13658,7 +13658,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1014">
@@ -14024,7 +14024,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1041">
@@ -14198,7 +14198,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1054">
@@ -14255,7 +14255,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1058">
@@ -14268,7 +14268,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1059">
@@ -14333,7 +14333,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1064">
@@ -14411,7 +14411,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1070">
@@ -14450,7 +14450,7 @@
     <row r="1073">
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1073">
@@ -14463,7 +14463,7 @@
     <row r="1074">
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1074">
@@ -14502,7 +14502,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1077">
@@ -14554,7 +14554,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1081">
@@ -14658,7 +14658,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1089">
@@ -14697,7 +14697,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1092">
@@ -14853,7 +14853,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
@@ -14910,7 +14910,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1108">
@@ -15027,7 +15027,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1117">
@@ -15209,7 +15209,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1131">
@@ -15430,7 +15430,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1148">
@@ -15443,7 +15443,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1149">
@@ -15456,7 +15456,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1150">
@@ -15508,7 +15508,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1154">
@@ -15521,7 +15521,7 @@
     <row r="1155">
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1155">
@@ -15534,7 +15534,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1156">
@@ -15547,7 +15547,7 @@
     <row r="1157">
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1157">
@@ -15638,7 +15638,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1164">
@@ -15703,7 +15703,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1169">
@@ -15755,7 +15755,7 @@
     <row r="1173">
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1173">
@@ -15846,7 +15846,7 @@
     <row r="1180">
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1180">
@@ -15885,7 +15885,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1183">
@@ -15976,7 +15976,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1190">
@@ -15989,7 +15989,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1191">
@@ -16054,7 +16054,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1196">
@@ -16301,7 +16301,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1215">
@@ -16405,7 +16405,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1223">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1232">
@@ -16571,7 +16571,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1235">
@@ -16649,7 +16649,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1241">
@@ -16657,41 +16657,6 @@
       </c>
       <c r="D1241">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
